--- a/results/mp/logistic/corona/confidence/84/stop-words-masking-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/84/stop-words-masking-0.1/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="66">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,12 +46,12 @@
     <t>crisis</t>
   </si>
   <si>
+    <t>forced</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
-    <t>forced</t>
-  </si>
-  <si>
     <t>fraud</t>
   </si>
   <si>
@@ -64,6 +64,9 @@
     <t>drop</t>
   </si>
   <si>
+    <t>falling</t>
+  </si>
+  <si>
     <t>fears</t>
   </si>
   <si>
@@ -76,18 +79,15 @@
     <t>low</t>
   </si>
   <si>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>lower</t>
+  </si>
+  <si>
     <t>cut</t>
   </si>
   <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>lower</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
@@ -97,12 +97,12 @@
     <t>demand</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>co</t>
   </si>
   <si>
-    <t>19</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
@@ -121,55 +121,55 @@
     <t>great</t>
   </si>
   <si>
+    <t>heroes</t>
+  </si>
+  <si>
     <t>hand</t>
   </si>
   <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>positive</t>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>fresh</t>
   </si>
   <si>
     <t>special</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
     <t>friends</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>growth</t>
+    <t>relief</t>
   </si>
   <si>
     <t>save</t>
@@ -181,24 +181,18 @@
     <t>gt</t>
   </si>
   <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>hope</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
@@ -211,13 +205,13 @@
     <t>safety</t>
   </si>
   <si>
+    <t>important</t>
+  </si>
+  <si>
     <t>protect</t>
   </si>
   <si>
     <t>increase</t>
-  </si>
-  <si>
-    <t>corona</t>
   </si>
 </sst>
 </file>
@@ -575,7 +569,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q40"/>
+  <dimension ref="A1:Q38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -586,7 +580,7 @@
         <v>29</v>
       </c>
       <c r="J1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -668,13 +662,13 @@
         <v>30</v>
       </c>
       <c r="K3">
-        <v>0.9565217391304348</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -686,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -694,13 +688,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.821917808219178</v>
+        <v>0.8047945205479452</v>
       </c>
       <c r="C4">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D4">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -712,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>31</v>
@@ -744,13 +738,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7894736842105263</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="C5">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D5">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -762,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>32</v>
@@ -794,13 +788,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7586206896551724</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C6">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D6">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -812,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>33</v>
@@ -868,13 +862,13 @@
         <v>34</v>
       </c>
       <c r="K7">
-        <v>0.875</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L7">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M7">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -886,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -918,13 +912,13 @@
         <v>35</v>
       </c>
       <c r="K8">
-        <v>0.8224543080939948</v>
+        <v>0.8297872340425532</v>
       </c>
       <c r="L8">
-        <v>315</v>
+        <v>39</v>
       </c>
       <c r="M8">
-        <v>315</v>
+        <v>39</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -936,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>68</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -944,13 +938,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7297297297297297</v>
+        <v>0.7027027027027027</v>
       </c>
       <c r="C9">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -962,19 +956,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>36</v>
       </c>
       <c r="K9">
-        <v>0.8181818181818182</v>
+        <v>0.814621409921671</v>
       </c>
       <c r="L9">
-        <v>27</v>
+        <v>312</v>
       </c>
       <c r="M9">
-        <v>27</v>
+        <v>312</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -986,7 +980,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>6</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1018,13 +1012,13 @@
         <v>37</v>
       </c>
       <c r="K10">
-        <v>0.8170731707317073</v>
+        <v>0.7926829268292683</v>
       </c>
       <c r="L10">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="M10">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1036,7 +1030,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1044,13 +1038,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5686274509803921</v>
+        <v>0.55</v>
       </c>
       <c r="C11">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D11">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1062,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>38</v>
       </c>
       <c r="K11">
-        <v>0.8103448275862069</v>
+        <v>0.7816901408450704</v>
       </c>
       <c r="L11">
-        <v>47</v>
+        <v>111</v>
       </c>
       <c r="M11">
-        <v>47</v>
+        <v>111</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1086,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>11</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1094,13 +1088,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5251937984496124</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="C12">
-        <v>271</v>
+        <v>27</v>
       </c>
       <c r="D12">
-        <v>271</v>
+        <v>27</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1112,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>245</v>
+        <v>24</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>39</v>
       </c>
       <c r="K12">
-        <v>0.8055555555555556</v>
+        <v>0.78125</v>
       </c>
       <c r="L12">
-        <v>29</v>
+        <v>100</v>
       </c>
       <c r="M12">
-        <v>29</v>
+        <v>100</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1136,7 +1130,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1144,13 +1138,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5238095238095238</v>
+        <v>0.5290697674418605</v>
       </c>
       <c r="C13">
-        <v>99</v>
+        <v>273</v>
       </c>
       <c r="D13">
-        <v>99</v>
+        <v>273</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1162,19 +1156,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>90</v>
+        <v>243</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>40</v>
       </c>
       <c r="K13">
-        <v>0.8028169014084507</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L13">
-        <v>114</v>
+        <v>21</v>
       </c>
       <c r="M13">
-        <v>114</v>
+        <v>21</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1186,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>28</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1194,13 +1188,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.4899328859060403</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="C14">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="D14">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1212,19 +1206,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>41</v>
       </c>
       <c r="K14">
-        <v>0.796875</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L14">
-        <v>102</v>
+        <v>45</v>
       </c>
       <c r="M14">
-        <v>102</v>
+        <v>45</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1236,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1244,13 +1238,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4</v>
+        <v>0.4966442953020134</v>
       </c>
       <c r="C15">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="D15">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1262,19 +1256,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>42</v>
       </c>
       <c r="K15">
-        <v>0.7875</v>
+        <v>0.775</v>
       </c>
       <c r="L15">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="M15">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1286,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1294,13 +1288,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.3818181818181818</v>
+        <v>0.44</v>
       </c>
       <c r="C16">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D16">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1312,19 +1306,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>43</v>
       </c>
       <c r="K16">
-        <v>0.7872340425531915</v>
+        <v>0.7674418604651163</v>
       </c>
       <c r="L16">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="M16">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1344,13 +1338,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.3733333333333334</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="C17">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D17">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1362,19 +1356,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>44</v>
       </c>
       <c r="K17">
-        <v>0.7830188679245284</v>
+        <v>0.7641509433962265</v>
       </c>
       <c r="L17">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="M17">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1386,7 +1380,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1394,13 +1388,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.3571428571428572</v>
+        <v>0.3454545454545455</v>
       </c>
       <c r="C18">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D18">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1418,13 +1412,13 @@
         <v>45</v>
       </c>
       <c r="K18">
-        <v>0.7777777777777778</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="L18">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M18">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1436,7 +1430,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1444,13 +1438,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.253968253968254</v>
+        <v>0.246031746031746</v>
       </c>
       <c r="C19">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D19">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1462,7 +1456,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>46</v>
@@ -1494,13 +1488,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.2333333333333333</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="C20">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D20">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1512,19 +1506,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>47</v>
       </c>
       <c r="K20">
-        <v>0.75</v>
+        <v>0.746031746031746</v>
       </c>
       <c r="L20">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="M20">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1536,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1544,13 +1538,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.1474530831099196</v>
+        <v>0.1340482573726542</v>
       </c>
       <c r="C21">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D21">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1562,7 +1556,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>48</v>
@@ -1594,37 +1588,37 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.0103126007089913</v>
+        <v>0.01029962546816479</v>
       </c>
       <c r="C22">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D22">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E22">
-        <v>0.11</v>
+        <v>0.24</v>
       </c>
       <c r="F22">
-        <v>0.89</v>
+        <v>0.76</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>
       </c>
       <c r="H22">
-        <v>3071</v>
+        <v>2114</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>49</v>
       </c>
       <c r="K22">
-        <v>0.7209302325581395</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L22">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="M22">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1636,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1644,25 +1638,25 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.009354536950420954</v>
+        <v>0.009987113402061855</v>
       </c>
       <c r="C23">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D23">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="E23">
-        <v>0.2</v>
+        <v>0.09</v>
       </c>
       <c r="F23">
-        <v>0.8</v>
+        <v>0.91</v>
       </c>
       <c r="G23" t="b">
         <v>1</v>
       </c>
       <c r="H23">
-        <v>2118</v>
+        <v>3073</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>50</v>
@@ -1671,10 +1665,10 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L23">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="M23">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1686,7 +1680,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1694,13 +1688,13 @@
         <v>51</v>
       </c>
       <c r="K24">
-        <v>0.6785714285714286</v>
+        <v>0.7</v>
       </c>
       <c r="L24">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="M24">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1712,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1720,13 +1714,13 @@
         <v>52</v>
       </c>
       <c r="K25">
-        <v>0.6571428571428571</v>
+        <v>0.6857142857142857</v>
       </c>
       <c r="L25">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M25">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1738,7 +1732,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1746,13 +1740,13 @@
         <v>53</v>
       </c>
       <c r="K26">
-        <v>0.6264705882352941</v>
+        <v>0.638235294117647</v>
       </c>
       <c r="L26">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="M26">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1764,7 +1758,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1798,13 +1792,13 @@
         <v>55</v>
       </c>
       <c r="K28">
-        <v>0.6</v>
+        <v>0.5857740585774058</v>
       </c>
       <c r="L28">
-        <v>39</v>
+        <v>140</v>
       </c>
       <c r="M28">
-        <v>39</v>
+        <v>140</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1816,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>26</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1824,13 +1818,13 @@
         <v>56</v>
       </c>
       <c r="K29">
-        <v>0.5932203389830508</v>
+        <v>0.5830508474576271</v>
       </c>
       <c r="L29">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="M29">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1842,7 +1836,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1850,13 +1844,13 @@
         <v>57</v>
       </c>
       <c r="K30">
-        <v>0.5815899581589958</v>
+        <v>0.574468085106383</v>
       </c>
       <c r="L30">
-        <v>139</v>
+        <v>54</v>
       </c>
       <c r="M30">
-        <v>139</v>
+        <v>54</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1868,7 +1862,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>100</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1876,25 +1870,25 @@
         <v>58</v>
       </c>
       <c r="K31">
-        <v>0.58</v>
+        <v>0.5538461538461539</v>
       </c>
       <c r="L31">
+        <v>36</v>
+      </c>
+      <c r="M31">
+        <v>36</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
         <v>29</v>
-      </c>
-      <c r="M31">
-        <v>29</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1902,13 +1896,13 @@
         <v>59</v>
       </c>
       <c r="K32">
-        <v>0.5757575757575758</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="L32">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="M32">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1920,7 +1914,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>14</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1928,13 +1922,13 @@
         <v>60</v>
       </c>
       <c r="K33">
-        <v>0.5638297872340425</v>
+        <v>0.4831460674157304</v>
       </c>
       <c r="L33">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="M33">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1946,7 +1940,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1954,13 +1948,13 @@
         <v>61</v>
       </c>
       <c r="K34">
-        <v>0.5285714285714286</v>
+        <v>0.4523809523809524</v>
       </c>
       <c r="L34">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="M34">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1972,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1980,13 +1974,13 @@
         <v>62</v>
       </c>
       <c r="K35">
-        <v>0.4943820224719101</v>
+        <v>0.4509803921568628</v>
       </c>
       <c r="L35">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="M35">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1998,7 +1992,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>45</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -2006,7 +2000,7 @@
         <v>63</v>
       </c>
       <c r="K36">
-        <v>0.4761904761904762</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="L36">
         <v>20</v>
@@ -2024,7 +2018,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -2032,13 +2026,13 @@
         <v>64</v>
       </c>
       <c r="K37">
-        <v>0.392156862745098</v>
+        <v>0.2876712328767123</v>
       </c>
       <c r="L37">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M37">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2050,7 +2044,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>31</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -2058,13 +2052,13 @@
         <v>65</v>
       </c>
       <c r="K38">
-        <v>0.3424657534246575</v>
+        <v>0.282051282051282</v>
       </c>
       <c r="L38">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M38">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2076,59 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="39" spans="10:17">
-      <c r="J39" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K39">
-        <v>0.2948717948717949</v>
-      </c>
-      <c r="L39">
-        <v>23</v>
-      </c>
-      <c r="M39">
-        <v>23</v>
-      </c>
-      <c r="N39">
-        <v>1</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="40" spans="10:17">
-      <c r="J40" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="K40">
-        <v>0.006894390473205891</v>
-      </c>
-      <c r="L40">
-        <v>22</v>
-      </c>
-      <c r="M40">
-        <v>32</v>
-      </c>
-      <c r="N40">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="O40">
-        <v>0.3100000000000001</v>
-      </c>
-      <c r="P40" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q40">
-        <v>3169</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
